--- a/model_exports/labels/2.0_True_False_3_3.xlsx
+++ b/model_exports/labels/2.0_True_False_3_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,46 +479,46 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-1025792018793021440</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,11 +570,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -583,24 +583,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,11 +648,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,33 +661,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-599446630732079104</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,33 +752,33 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,37 +791,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-694942679688437760</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -882,46 +882,46 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-695354495606259712</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-696194593700712448</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,59 +934,59 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,24 +1012,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,20 +1038,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,50 +1090,50 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-765195503457882112</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-765297031346655232</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,20 +1142,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,24 +1168,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-937797554313551873</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-937878737382772737</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,33 +1194,33 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-938887720075702272</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,11 +1233,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,20 +1298,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,11 +1376,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1389,20 +1389,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1428,59 +1428,59 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-754462771173924865</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,24 +1532,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,20 +1571,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,63 +1623,63 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-506695122298212352</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,24 +1688,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1714,37 +1714,37 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,24 +1766,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1792,50 +1792,50 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1844,24 +1844,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,33 +1935,33 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,85 +1987,85 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,50 +2104,50 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -2156,20 +2156,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,20 +2195,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,14 +2221,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-583930739512713216</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,33 +2312,33 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,20 +2364,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-594613009575579649</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-602966767602831362</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-602969826642898945</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2403,20 +2403,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-603005702697713664</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,63 +2455,63 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2520,89 +2520,89 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-892821066799820805</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2611,33 +2611,33 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,24 +2676,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2702,137 +2702,137 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1029734360872771584</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2858,20 +2858,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,11 +2884,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -2897,20 +2897,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,63 +2936,63 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-750893641632063488</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,33 +3014,33 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,7 +3053,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,33 +3118,33 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,11 +3235,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -3274,11 +3274,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,20 +3287,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,33 +3313,33 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-577773253898477568</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-577808831918579712</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-605776092780044291</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-1039508390869786629</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1039553624345661440</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1039619721644191744</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,24 +3482,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,11 +3508,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,20 +3534,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,11 +3560,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-1026228357996969984</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3573,20 +3573,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-1039508390869786629</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-1039553624345661440</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-1039619721644191744</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,11 +3651,11 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -3664,24 +3664,24 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,11 +3690,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,20 +3716,20 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,20 +3742,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-1026494793466048518</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-549835920762220544</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,11 +3781,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,33 +3794,33 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-946151169231114241</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,20 +3846,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,20 +3872,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,20 +3898,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,11 +3924,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3937,14 +3937,14 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -3963,20 +3963,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,24 +3989,24 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-887375379186548736</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,20 +4028,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,46 +4080,46 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,24 +4171,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -4197,20 +4197,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,24 +4223,24 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-1049990926406492160</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,24 +4249,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,33 +4275,33 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-643571264011898881</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,37 +4314,37 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-646419866795118592</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,20 +4353,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,46 +4379,46 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-680032445673148416</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,33 +4470,33 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,7 +4509,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,46 +4522,46 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,20 +4574,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,11 +4600,11 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4613,11 +4613,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -4626,63 +4626,63 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4691,11 +4691,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4704,11 +4704,11 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,7 +4717,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-859881873865973760</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,46 +4730,46 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-859891336627048448</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-859891655167664129</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,33 +4808,33 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,7 +4847,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,24 +4860,24 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,72 +4899,72 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,24 +4977,24 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5055,33 +5055,33 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,11 +5094,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,33 +5107,33 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,20 +5146,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,7 +5172,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,20 +5198,20 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,11 +5224,11 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -5263,50 +5263,50 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-880054371417018369</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
         <v>1</v>
@@ -5315,33 +5315,33 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,7 +5354,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5367,7 +5367,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,63 +5380,63 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-912723744195596289</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,50 +5458,50 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,7 +5549,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,24 +5614,24 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,20 +5653,20 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,33 +5679,33 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,7 +5718,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,20 +5731,20 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,11 +5757,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -5770,20 +5770,20 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,11 +5822,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -5835,11 +5835,11 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,46 +5874,46 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-534007858804056066</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,46 +5926,46 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,24 +5978,24 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -6004,59 +6004,59 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,7 +6069,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-1024937575906271233</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,11 +6082,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,37 +6108,37 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,24 +6147,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,50 +6199,50 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -6251,20 +6251,20 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,20 +6277,20 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,50 +6316,50 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B454" t="n">
         <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6368,11 +6368,11 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,72 +6446,72 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,11 +6537,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,24 +6550,24 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -6576,11 +6576,11 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,20 +6602,20 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,20 +6628,20 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,11 +6667,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
         <v>0</v>
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,20 +6693,20 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,7 +6719,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,46 +6732,46 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,50 +6784,50 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-957301618868965376</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -6836,20 +6836,20 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,20 +6862,20 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,20 +6901,20 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-899696948046856192</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B498" t="n">
         <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,7 +6940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,24 +6953,24 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
         <v>0</v>
@@ -6979,7 +6979,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,24 +6992,24 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,76 +7031,76 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
         <v>1</v>
@@ -7109,7 +7109,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,46 +7148,46 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-902928093131808770</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,7 +7200,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,85 +7213,85 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-988749833476325376</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,11 +7304,11 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
         <v>1</v>
@@ -7317,37 +7317,37 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-1051774073523634182</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-1052071039923044352</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-834802174559412225</t>
+          <t>t-1052145118726238209</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
         <v>0</v>
@@ -7356,11 +7356,11 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-1052182549513035776</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
         <v>0</v>
@@ -7369,11 +7369,11 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-836581914320506880</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
         <v>1</v>
@@ -7382,46 +7382,46 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-991723021709832193</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-537546537975685120</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-537578272348205056</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-537578565139582976</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-537896255347646465</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,76 +7460,76 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>0</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
         <v>0</v>
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-572446866039697408</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,20 +7564,20 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,7 +7590,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,7 +7603,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,11 +7616,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-898971629665099776</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,11 +7642,11 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -7655,11 +7655,11 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
         <v>1</v>
@@ -7668,20 +7668,20 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-645961089671405568</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,24 +7694,24 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
         <v>0</v>
@@ -7720,11 +7720,11 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
         <v>1</v>
@@ -7733,20 +7733,20 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,46 +7772,46 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-854250685419986949</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-854262837673246720</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-1031392016255647744</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-755613145079484416</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,20 +7850,20 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-890567544695906304</t>
+          <t>t-823758777857908736</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-823809561622695937</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-823868915621052416</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,20 +7889,20 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-824113067696930816</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-824154025864167424</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,50 +7915,50 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-824160171534467072</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-825053893184753664</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-825136994833428480</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-825930607427416064</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -7967,20 +7967,20 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,20 +8058,20 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,11 +8097,11 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
         <v>1</v>
@@ -8110,11 +8110,11 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,59 +8136,59 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,37 +8201,37 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -8240,11 +8240,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,24 +8266,24 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,46 +8305,46 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>1</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-806390063244410880</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,20 +8396,20 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-806499176066453505</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B613" t="n">
         <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,11 +8422,11 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-839656521227091969</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,11 +8448,11 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
         <v>1</v>
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,33 +8474,33 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B619" t="n">
         <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,11 +8604,11 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,20 +8656,20 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-666604346558271489</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-667233953934282752</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,37 +8708,37 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B638" t="n">
         <v>1</v>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,11 +8747,11 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C640" t="n">
         <v>1</v>
@@ -8760,33 +8760,33 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B641" t="n">
         <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-733931111152123906</t>
+          <t>t-801391859083988993</t>
         </is>
       </c>
       <c r="B642" t="n">
         <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-734714075603718144</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-734767651981905921</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-735043937040093185</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,11 +8838,11 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -8851,11 +8851,11 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,33 +8877,33 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B651" t="n">
         <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,11 +8929,11 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
         <v>1</v>
@@ -8942,20 +8942,20 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B655" t="n">
         <v>1</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,20 +9007,20 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,24 +9072,24 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
         <v>0</v>
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,11 +9124,11 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
         <v>1</v>
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,11 +9163,11 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
         <v>1</v>
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,24 +9189,24 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,20 +9241,20 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,11 +9371,11 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,11 +9384,11 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,20 +9436,20 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B693" t="n">
         <v>1</v>
       </c>
       <c r="C693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,20 +9488,20 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,11 +9527,11 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,11 +9566,11 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -9579,20 +9579,20 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B704" t="n">
         <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,37 +9605,37 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B707" t="n">
         <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,11 +9657,11 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
         <v>1</v>
@@ -9670,14 +9670,14 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,33 +9709,33 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-584288298249531392</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B715" t="n">
         <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,11 +9761,11 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -9774,11 +9774,11 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,20 +9787,20 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-590978217546092544</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-785325402981924866</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-785347096031268864</t>
+          <t>t-797677972547219456</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,39 +9930,13 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-946177924222222336</t>
+          <t>t-928096679089209344</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C731" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>t-798490523820380160</t>
-        </is>
-      </c>
-      <c r="B732" t="n">
-        <v>1</v>
-      </c>
-      <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-928096679089209344</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>0</v>
-      </c>
-      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
